--- a/Priming/psychopy/Jianti1/Jianti1.xlsx
+++ b/Priming/psychopy/Jianti1/Jianti1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/Jianti1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC83AB84-354F-2840-8E70-2D4A525BE9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F49175-F5E2-944A-AC49-60ED0B61B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{23BFEEAD-3FD8-204C-BA34-CD36C4A1FFC3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="109">
   <si>
     <t>prime</t>
   </si>
@@ -367,10 +367,13 @@
     <t>性乃</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>nonword</t>
   </si>
 </sst>
 </file>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB150E-9F44-2447-B6C6-18CABAB240CD}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,7 +921,7 @@
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -929,7 +932,7 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -940,7 +943,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -951,7 +954,7 @@
         <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -962,7 +965,7 @@
         <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -973,7 +976,7 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -984,7 +987,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -995,7 +998,7 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1006,7 +1009,7 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1017,7 +1020,7 @@
         <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1028,7 +1031,7 @@
         <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1039,7 +1042,7 @@
         <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1050,7 +1053,7 @@
         <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1061,7 +1064,7 @@
         <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1072,7 +1075,7 @@
         <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1083,7 +1086,7 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1094,7 +1097,7 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1105,7 +1108,7 @@
         <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1116,7 +1119,7 @@
         <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1127,7 +1130,7 @@
         <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1138,7 +1141,7 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1149,7 +1152,7 @@
         <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1160,7 +1163,7 @@
         <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1171,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1182,7 +1185,7 @@
         <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1193,7 +1196,7 @@
         <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1204,7 +1207,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1215,7 +1218,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1226,7 +1229,7 @@
         <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1237,7 +1240,7 @@
         <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1248,7 +1251,7 @@
         <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1259,7 +1262,7 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1270,7 +1273,7 @@
         <v>87</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1281,7 +1284,7 @@
         <v>89</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1292,7 +1295,7 @@
         <v>91</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1303,7 +1306,7 @@
         <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1314,7 +1317,7 @@
         <v>95</v>
       </c>
       <c r="C52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1325,7 +1328,7 @@
         <v>97</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1336,7 +1339,7 @@
         <v>99</v>
       </c>
       <c r="C54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1347,7 +1350,7 @@
         <v>101</v>
       </c>
       <c r="C55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1358,7 +1361,7 @@
         <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1369,7 +1372,7 @@
         <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Priming/psychopy/Jianti1/Jianti1.xlsx
+++ b/Priming/psychopy/Jianti1/Jianti1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/Jianti1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F49175-F5E2-944A-AC49-60ED0B61B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A811844-1A6B-C34B-9889-97325CE6DEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{23BFEEAD-3FD8-204C-BA34-CD36C4A1FFC3}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB150E-9F44-2447-B6C6-18CABAB240CD}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">

--- a/Priming/psychopy/Jianti1/Jianti1.xlsx
+++ b/Priming/psychopy/Jianti1/Jianti1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/Jianti1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A811844-1A6B-C34B-9889-97325CE6DEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648D69EE-A56A-B840-AD02-02EF010B8007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{23BFEEAD-3FD8-204C-BA34-CD36C4A1FFC3}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB150E-9F44-2447-B6C6-18CABAB240CD}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C29" sqref="A16:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,332 +893,332 @@
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1376,6 +1376,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C57">
+    <sortCondition ref="C1:C57"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>